--- a/biology/Microbiologie/Oxytrichidae/Oxytrichidae.xlsx
+++ b/biology/Microbiologie/Oxytrichidae/Oxytrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oxytrichidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Oxytrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Oxytricha, dérivé du grec ὀξύς / oxýs, « aigu, pointu », et de θριξ / thrix), « cheveu, poil, soie, cil ».
 </t>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des genres Histriculus, Oxytricha, Sterkiella et Stylonychia se ressemblent beaucoup et ont souvent été confondues[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des genres Histriculus, Oxytricha, Sterkiella et Stylonychia se ressemblent beaucoup et ont souvent été confondues.
 Au sein de ce groupe, seul Histriculus est dépourvu de cirres caudaux et possède des rangées « cirrales » marginales confluentes, le séparant clairement de Sterkiella et de Stylonychia.
 Ces derniers genres diffèrent morphologiquement, principalement par :
 la disposition des membranes ondulantes : sécantes chez Sterkiella, parallèles chez Stylonychia ;
-du champ buccal : étroit chez Sterkiella, plus large et triangulaire chez Stylonychia[1].
-Oxytricha est le genre le plus volumineux parmi de la famille des oxytrichidés, comprenant environ 50 espèces valides et environ 60 espèces indéterminées. Seul un quart des espèces valides a été décrit en détail[1].
+du champ buccal : étroit chez Sterkiella, plus large et triangulaire chez Stylonychia.
+Oxytricha est le genre le plus volumineux parmi de la famille des oxytrichidés, comprenant environ 50 espèces valides et environ 60 espèces indéterminées. Seul un quart des espèces valides a été décrit en détail.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Oxytrichidae a un répartition mondiale, dans toutes sortes d'environnements[2].
-Oxytricha est un genre de protozoaire d'eau douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Oxytrichidae a un répartition mondiale, dans toutes sortes d'environnements.
+Oxytricha est un genre de protozoaire d'eau douce.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (5 mars 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (5 mars 2023) :
 Alloiozona
 Allotricha Sterki, 1878
 Amphisiellides Foissner, 1988
